--- a/Project Management/Testing/RTM/RTM.xlsx
+++ b/Project Management/Testing/RTM/RTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Function IDs and Scenarios'!$H$7:$X$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Scenarios and Test Cases'!$F$6:$AA$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'The Whole Grid'!$C$1:$C$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'The Whole Grid'!$C$1:$C$105</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="201">
   <si>
     <t>Requirement Traceability Matrix</t>
   </si>
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z104"/>
+  <dimension ref="B2:Z105"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,17 +2422,13 @@
     </row>
     <row r="13" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D13" s="3"/>
-      <c r="E13" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="20">
-        <v>1</v>
-      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="23"/>
       <c r="H13" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -2456,16 +2452,16 @@
     <row r="14" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
       <c r="E14" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>159</v>
+        <v>186</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="G14" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -2488,17 +2484,19 @@
     </row>
     <row r="15" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="F15" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
       <c r="H15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -2519,19 +2517,17 @@
     </row>
     <row r="16" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
-      <c r="E16" s="20" t="s">
-        <v>188</v>
-      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="23">
-        <v>3</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G16" s="23"/>
       <c r="H16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -2552,17 +2548,19 @@
     </row>
     <row r="17" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="F17" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="G17" s="23">
+        <v>3</v>
+      </c>
       <c r="H17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -2583,33 +2581,21 @@
     </row>
     <row r="18" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
-      <c r="E18" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="23">
-        <v>6</v>
-      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="23"/>
       <c r="H18" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="10"/>
@@ -2626,19 +2612,33 @@
     </row>
     <row r="19" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="F19" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="20"/>
+        <v>165</v>
+      </c>
+      <c r="G19" s="23">
+        <v>6</v>
+      </c>
       <c r="H19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="L19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="10"/>
@@ -2656,12 +2656,12 @@
     <row r="20" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="23" t="s">
-        <v>175</v>
+      <c r="F20" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -2684,24 +2684,16 @@
     </row>
     <row r="21" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
-      <c r="E21" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="20">
-        <v>9</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>32</v>
-      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -2721,32 +2713,29 @@
     </row>
     <row r="22" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="F22" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="20">
+        <v>9</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="J22" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
@@ -2762,20 +2751,31 @@
     <row r="23" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="23" t="s">
-        <v>166</v>
+      <c r="F23" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="J23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
@@ -2792,11 +2792,11 @@
       <c r="D24" s="3"/>
       <c r="E24" s="20"/>
       <c r="F24" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="20"/>
@@ -2819,21 +2819,15 @@
     </row>
     <row r="25" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
-      <c r="E25" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="E25" s="20"/>
       <c r="F25" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="20">
-        <v>2</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="23"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -2854,12 +2848,19 @@
     </row>
     <row r="26" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>191</v>
+      </c>
       <c r="F26" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
       <c r="H26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>40</v>
       </c>
       <c r="J26" s="20"/>
@@ -2882,19 +2883,14 @@
     </row>
     <row r="27" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
-      <c r="E27" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="20">
-        <v>2</v>
-      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="23"/>
       <c r="H27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="20"/>
+        <v>40</v>
+      </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -2915,13 +2911,17 @@
     </row>
     <row r="28" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="23"/>
+      <c r="E28" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="20">
+        <v>2</v>
+      </c>
       <c r="H28" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -2944,17 +2944,13 @@
     </row>
     <row r="29" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
-      <c r="E29" s="20" t="s">
-        <v>193</v>
-      </c>
+      <c r="E29" s="20"/>
       <c r="F29" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G29" s="23"/>
       <c r="H29" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -2977,11 +2973,15 @@
     </row>
     <row r="30" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="F30" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="23"/>
+        <v>155</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
       <c r="H30" s="20" t="s">
         <v>43</v>
       </c>
@@ -3006,21 +3006,15 @@
     </row>
     <row r="31" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
-      <c r="E31" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="G31" s="20">
-        <v>2</v>
-      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="23"/>
       <c r="H31" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I31" s="20"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
@@ -3042,29 +3036,23 @@
     <row r="32" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G32" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -3082,18 +3070,30 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="23"/>
+      <c r="E33" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="20">
+        <v>5</v>
+      </c>
       <c r="H33" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
@@ -3111,33 +3111,19 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
-      <c r="E34" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="E34" s="20"/>
       <c r="F34" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="20">
-        <v>6</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G34" s="23"/>
       <c r="H34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>54</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
       <c r="P34" s="10"/>
@@ -3154,19 +3140,33 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="F35" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="23"/>
+        <v>172</v>
+      </c>
+      <c r="G35" s="20">
+        <v>6</v>
+      </c>
       <c r="H35" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="J35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
       <c r="P35" s="10"/>
@@ -3183,17 +3183,13 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
-      <c r="E36" s="20" t="s">
-        <v>197</v>
-      </c>
+      <c r="E36" s="20"/>
       <c r="F36" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="20">
-        <v>1</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G36" s="23"/>
       <c r="H36" s="20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
@@ -3217,16 +3213,16 @@
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="23">
+        <v>172</v>
+      </c>
+      <c r="G37" s="20">
         <v>1</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -3250,16 +3246,16 @@
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G38" s="23">
         <v>1</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>13</v>
+      <c r="H38" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -3283,11 +3279,17 @@
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+        <v>199</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="23">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -3309,6 +3311,12 @@
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
+      <c r="E40" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -3330,10 +3338,6 @@
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="17"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
@@ -3357,7 +3361,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="20"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="17"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -3378,26 +3382,20 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="14">
-        <v>19</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14">
-        <v>55</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="12"/>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="10"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
@@ -3409,19 +3407,26 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
+    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="14">
+        <v>19</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14">
+        <v>55</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="12"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
@@ -3434,9 +3439,6 @@
       <c r="Z44" s="13"/>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -5053,6 +5055,33 @@
       <c r="Y104" s="13"/>
       <c r="Z104" s="13"/>
     </row>
+    <row r="105" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13"/>
+      <c r="V105" s="13"/>
+      <c r="W105" s="13"/>
+      <c r="X105" s="13"/>
+      <c r="Y105" s="13"/>
+      <c r="Z105" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:P3"/>
@@ -5065,10 +5094,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:AB43"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AA14" sqref="AA14"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5787,7 +5816,9 @@
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -6282,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,7 +6826,9 @@
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
-      <c r="X16" s="22"/>
+      <c r="X16" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
       <c r="AA16" s="22"/>
